--- a/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_捷豹组.xlsx
+++ b/VersionRecords/Version 3.1.3.3/版本Bug和特性计划及评审表v3.1.3.3_捷豹组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>No</t>
   </si>
@@ -192,13 +192,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>樊黎</t>
-    <rPh sb="0" eb="1">
-      <t>fan'li</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>合同整体算法调整</t>
   </si>
   <si>
@@ -247,6 +240,34 @@
   </si>
   <si>
     <t>Bugfix</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王友旺</t>
+    <rPh sb="0" eb="1">
+      <t>wang'you'w</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <rPh sb="0" eb="1">
+      <t>shi'chao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <rPh sb="0" eb="1">
+      <t>ton'guo</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <rPh sb="0" eb="1">
+      <t>neng</t>
+    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -305,12 +326,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -353,6 +376,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -360,6 +384,7 @@
       <sz val="11"/>
       <color theme="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -479,7 +504,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="269">
+  <cellStyleXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1281,6 +1306,30 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1401,7 +1450,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="269">
+  <cellStyles count="277">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规 3" xfId="1"/>
@@ -1539,6 +1588,10 @@
     <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
@@ -1671,6 +1724,10 @@
     <cellStyle name="已访问的超链接" xfId="264" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="266" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="276" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2016,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2109,13 +2166,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>15</v>
@@ -2131,17 +2188,23 @@
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="L2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42522</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="22"/>
@@ -2174,7 +2237,7 @@
         <v>42521</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>34</v>
@@ -2183,11 +2246,17 @@
         <v>35</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="13">
+        <v>42522</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
@@ -2199,10 +2268,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>31</v>
@@ -2213,15 +2282,31 @@
       <c r="F4" s="37">
         <v>42521</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="G4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="37">
+        <v>42521</v>
+      </c>
       <c r="I4" s="12"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="13">
+        <v>42522</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
